--- a/図書貸出データベース/ふつうのEXCEL表の場合.xlsx
+++ b/図書貸出データベース/ふつうのEXCEL表の場合.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\デスクトップLaLaバックアップ\LaLa-2025-01\09_MySQL\LaLa-MySQL-work\図書貸出データベース\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3700F5DF-68F8-4A06-B821-B831C84728F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="1890" yWindow="780" windowWidth="16740" windowHeight="10530" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,40 +27,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
-    <t xml:space="preserve">貸出番号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">会員番号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">会員名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">貸出日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">返却予定日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">書籍番号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">書籍名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">著者</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">浦島太郎</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bk001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">いやいやえん</t>
+    <t>貸出番号</t>
+  </si>
+  <si>
+    <t>会員番号</t>
+  </si>
+  <si>
+    <t>会員名</t>
+  </si>
+  <si>
+    <t>貸出日</t>
+  </si>
+  <si>
+    <t>返却予定日</t>
+  </si>
+  <si>
+    <t>書籍番号</t>
+  </si>
+  <si>
+    <t>書籍名</t>
+  </si>
+  <si>
+    <t>著者</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>浦島太郎</t>
+  </si>
+  <si>
+    <t>bk001</t>
+  </si>
+  <si>
+    <t>いやいやえん</t>
   </si>
   <si>
     <r>
@@ -65,7 +70,7 @@
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">中川李枝子</t>
+      <t>中川李枝子</t>
     </r>
     <r>
       <rPr>
@@ -75,7 +80,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">/</t>
+      <t>/</t>
     </r>
     <r>
       <rPr>
@@ -84,23 +89,23 @@
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">大村百合子</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">bk002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">わたしとあそんで</t>
-  </si>
-  <si>
-    <t xml:space="preserve">マリー・ホール・エッツ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bk003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">エルマーの冒険</t>
+      <t>大村百合子</t>
+    </r>
+  </si>
+  <si>
+    <t>bk002</t>
+  </si>
+  <si>
+    <t>わたしとあそんで</t>
+  </si>
+  <si>
+    <t>マリー・ホール・エッツ</t>
+  </si>
+  <si>
+    <t>bk003</t>
+  </si>
+  <si>
+    <t>エルマーの冒険</t>
   </si>
   <si>
     <r>
@@ -110,7 +115,7 @@
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ルース・スタイル・がネット</t>
+      <t>ルース・スタイル・がネット</t>
     </r>
     <r>
       <rPr>
@@ -130,29 +135,29 @@
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ルース・クリスマン・ガネット</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">C03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">金太郎</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bk004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ゲド戦記</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ル・グウィン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bk005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">けんはへっちゃら</t>
+      <t>ルース・クリスマン・ガネット</t>
+    </r>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+  <si>
+    <t>金太郎</t>
+  </si>
+  <si>
+    <t>bk004</t>
+  </si>
+  <si>
+    <t>ゲド戦記</t>
+  </si>
+  <si>
+    <t>ル・グウィン</t>
+  </si>
+  <si>
+    <t>bk005</t>
+  </si>
+  <si>
+    <t>けんはへっちゃら</t>
   </si>
   <si>
     <r>
@@ -162,7 +167,7 @@
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">谷川俊太郎</t>
+      <t>谷川俊太郎</t>
     </r>
     <r>
       <rPr>
@@ -172,7 +177,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">/</t>
+      <t>/</t>
     </r>
     <r>
       <rPr>
@@ -181,25 +186,24 @@
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">和田真</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">C04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">かぐや姫</t>
+      <t>和田真</t>
+    </r>
+  </si>
+  <si>
+    <t>C04</t>
+  </si>
+  <si>
+    <t>かぐや姫</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,25 +211,16 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -238,102 +233,83 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.5999"/>
+        <fgColor theme="7" tint="0.59987182226020086"/>
         <bgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -392,60 +368,76 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -477,7 +469,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -501,7 +493,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -561,253 +553,245 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="11.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="29.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="10.49"/>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="6" width="11.75" customWidth="1"/>
+    <col min="7" max="7" width="17.875" customWidth="1"/>
+    <col min="8" max="8" width="16.125" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="16384" max="16384" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.75">
+      <c r="A3" s="5"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="3">
         <v>123456</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="1">
         <v>45565</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="F3" s="1">
         <v>45580</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.75">
+      <c r="A4" s="5"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="33.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" ht="33">
+      <c r="A5" s="5"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6" t="n">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="10">
         <v>45553</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="10">
         <v>45567</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.75">
+      <c r="A6" s="5"/>
       <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="3">
         <v>123457</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="E6" s="1">
         <v>45565</v>
       </c>
-      <c r="F6" s="6" t="n">
+      <c r="F6" s="1">
         <v>45580</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" ht="18.75">
+      <c r="A7" s="5"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
-      <c r="B8" s="4" t="s">
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" ht="18.75">
+      <c r="A8" s="5"/>
+      <c r="B8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="7">
         <v>123458</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="6" t="n">
+      <c r="E8" s="10">
         <v>45538</v>
       </c>
-      <c r="F8" s="6" t="n">
+      <c r="F8" s="10">
         <v>45552</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" s="9" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M10" s="0"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>